--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>377557.263690457</v>
+        <v>366389.3021028525</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901942</v>
+        <v>4671565.284901946</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7214271.626371352</v>
+        <v>7147761.763404132</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -668,10 +670,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>74.03169761275359</v>
       </c>
       <c r="Y2" t="n">
-        <v>71.94762989914921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2984549015674</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -899,13 +901,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>223.4998966546391</v>
+        <v>92.38090300811082</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1063,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>42.7677725434426</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>120.8454866626898</v>
+        <v>74.03169761275359</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>92.38090300811126</v>
       </c>
       <c r="F11" t="n">
-        <v>241.6761251116385</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348486</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1585,10 +1587,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>177.6444631879117</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1607,19 +1609,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>175.4484477837736</v>
+        <v>58.67748875058492</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8833258811976</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>24.12958620662185</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>265.0161216492939</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2014,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>35.56826410134492</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>25.13775189891268</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2090,16 +2092,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>78.26653139842047</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2479,10 +2481,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>190.3410033946367</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2611,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2722,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>73.77114254798329</v>
+        <v>123.9086344760393</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2852,7 +2854,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>79.02936655690354</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3089,7 +3091,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3187,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -3241,16 +3243,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="V34" t="n">
-        <v>210.708038089656</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3329,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>57.24387488545796</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3509,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3673,10 +3675,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>23.33741930671873</v>
+        <v>137.8090391299105</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U43" t="n">
-        <v>100.7973101322335</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>285.8735237895857</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4138,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>146.1447286778224</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.668515703089</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C2" t="n">
-        <v>893.7677857163897</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D2" t="n">
-        <v>470.47516490139</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.191253630124</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="Y2" t="n">
-        <v>1740.51687999462</v>
+        <v>2150.131759924241</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4391,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M3" t="n">
-        <v>866.8612493132769</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N3" t="n">
-        <v>866.8612493132769</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O3" t="n">
-        <v>1417.526784297715</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.6261093758709</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>645.6535462547869</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>482.3367733815576</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>316.1285675344111</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U4" t="n">
-        <v>2033.262614171847</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V4" t="n">
-        <v>1751.551146779876</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>1476.698742952389</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>1234.134846398194</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>1007.792078087936</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1122.28060821487</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="C5" t="n">
-        <v>695.3798782281697</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="D5" t="n">
-        <v>695.3798782281697</v>
+        <v>137.8122684917837</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1123.5801824935</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M5" t="n">
-        <v>1674.245717477938</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>2224.911252462377</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.1289725064</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.1289725064</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>1389.040378766978</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>1389.040378766978</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>855.2210751021008</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>683.2485119810168</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>519.9317391077875</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>353.723533260641</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>353.723533260641</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>187.4665635548732</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875754</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483783</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.784971656296</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>855.2210751021008</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>855.2210751021008</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.49822504924753</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C8" t="n">
-        <v>44.49822504924753</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>44.49822504924753</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M8" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P8" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2152.580309506745</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>991.7500075300184</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X8" t="n">
-        <v>869.6838593858872</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.3465893407776</v>
+        <v>2150.131759924241</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N9" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4957,7 +4959,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1416.799903930471</v>
+        <v>988.0056192934837</v>
       </c>
       <c r="C11" t="n">
-        <v>1416.799903930471</v>
+        <v>561.1048893067839</v>
       </c>
       <c r="D11" t="n">
-        <v>1416.799903930471</v>
+        <v>137.8122684917842</v>
       </c>
       <c r="E11" t="n">
-        <v>990.8229640783283</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F11" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L11" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M11" t="n">
-        <v>1006.023847611597</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N11" t="n">
-        <v>1556.689382596036</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W11" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X11" t="n">
-        <v>1416.799903930471</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y11" t="n">
-        <v>1416.799903930471</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5108,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K12" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L12" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M12" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N12" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978367</v>
       </c>
       <c r="O12" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P12" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>645.7023101134083</v>
+        <v>458.7432593109774</v>
       </c>
       <c r="C13" t="n">
-        <v>645.7023101134083</v>
+        <v>458.7432593109774</v>
       </c>
       <c r="D13" t="n">
-        <v>482.385537240179</v>
+        <v>458.7432593109774</v>
       </c>
       <c r="E13" t="n">
-        <v>482.385537240179</v>
+        <v>458.7432593109774</v>
       </c>
       <c r="F13" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G13" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5206,7 +5208,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N13" t="n">
         <v>1451.88378161995</v>
@@ -5233,16 +5235,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V13" t="n">
-        <v>1304.774943689927</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.774943689927</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X13" t="n">
-        <v>1062.211047135732</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.8682788254739</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>873.9614692703988</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C14" t="n">
-        <v>873.9614692703988</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D14" t="n">
-        <v>873.9614692703988</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E14" t="n">
-        <v>873.9614692703988</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F14" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M14" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N14" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O14" t="n">
-        <v>1696.494830002562</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V14" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W14" t="n">
-        <v>1471.030487888973</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X14" t="n">
-        <v>1293.809833561929</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y14" t="n">
-        <v>1293.809833561929</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5345,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K15" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L15" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M15" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N15" t="n">
-        <v>1153.275937980036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O15" t="n">
-        <v>1153.275937980036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P15" t="n">
-        <v>1307.021068682275</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q15" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5413,25 +5415,25 @@
         <v>1127.679347573484</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>955.7067844524003</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>792.390011579171</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5443,7 +5445,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N16" t="n">
         <v>1451.88378161995</v>
@@ -5470,7 +5472,7 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
-        <v>1943.199785070404</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W16" t="n">
         <v>1786.751981150003</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1194.391515372512</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C17" t="n">
-        <v>767.4907853858125</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D17" t="n">
-        <v>767.4907853858125</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E17" t="n">
-        <v>767.4907853858125</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F17" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G17" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L17" t="n">
+        <v>44.49822504924752</v>
+      </c>
+      <c r="M17" t="n">
+        <v>595.1637600336855</v>
+      </c>
+      <c r="N17" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M17" t="n">
-        <v>1674.245717477938</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1674.245717477938</v>
-      </c>
       <c r="O17" t="n">
-        <v>1674.245717477938</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="V17" t="n">
-        <v>1867.421837588626</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="W17" t="n">
-        <v>1599.728785417622</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="X17" t="n">
-        <v>1599.728785417622</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="Y17" t="n">
-        <v>1194.391515372512</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5582,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>602.6104029955975</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L18" t="n">
-        <v>1153.275937980036</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M18" t="n">
-        <v>1153.275937980036</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N18" t="n">
-        <v>1153.275937980036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O18" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
         <v>1853.185855629757</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.8830790816388</v>
+        <v>590.4683077392256</v>
       </c>
       <c r="C19" t="n">
-        <v>811.9105159605548</v>
+        <v>418.4957446181415</v>
       </c>
       <c r="D19" t="n">
-        <v>648.5937430873255</v>
+        <v>418.4957446181415</v>
       </c>
       <c r="E19" t="n">
-        <v>482.385537240179</v>
+        <v>252.2875387709951</v>
       </c>
       <c r="F19" t="n">
-        <v>310.5237630147394</v>
+        <v>80.42576454555552</v>
       </c>
       <c r="G19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5680,7 +5682,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N19" t="n">
         <v>1451.88378161995</v>
@@ -5698,25 +5700,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2199.519583877615</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>2199.519583877615</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U19" t="n">
-        <v>2199.519583877615</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V19" t="n">
-        <v>1917.808116485644</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W19" t="n">
-        <v>1642.955712658157</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="X19" t="n">
-        <v>1400.391816103962</v>
+        <v>1006.977044761549</v>
       </c>
       <c r="Y19" t="n">
-        <v>1174.049047793704</v>
+        <v>780.6342764512912</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>2145.854150039729</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>1740.51687999462</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M21" t="n">
-        <v>3306.448039710919</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N21" t="n">
-        <v>4395.762986183789</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O21" t="n">
-        <v>4395.762986183789</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P21" t="n">
-        <v>5111.960703222287</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3158.801708427964</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C22" t="n">
-        <v>2986.82914530688</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878299</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -6002,22 +6004,22 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4090.576687723259</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P23" t="n">
-        <v>4798.855966881186</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6066,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>610.0460590406528</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>1446.844867123559</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>603.8002552472883</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>431.8276921262043</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>268.510919252975</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
         <v>102.3027134058285</v>
@@ -6145,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1873.278440232703</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1593.093991733007</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1311.382524341036</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1036.530120513549</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>793.966223959354</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.966223959354</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6233,28 +6235,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P26" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6303,22 +6305,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>844.5735305570797</v>
+        <v>3899.499165495449</v>
       </c>
       <c r="C28" t="n">
-        <v>672.6009674359957</v>
+        <v>3727.526602374365</v>
       </c>
       <c r="D28" t="n">
-        <v>509.2841945627664</v>
+        <v>3564.209829501136</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0759887156199</v>
+        <v>3398.00162365399</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0759887156199</v>
+        <v>3226.13984942855</v>
       </c>
       <c r="G28" t="n">
-        <v>176.8190190098521</v>
+        <v>3059.882879722782</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U28" t="n">
-        <v>1785.357631525569</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="V28" t="n">
-        <v>1503.646164133598</v>
+        <v>4833.424202899455</v>
       </c>
       <c r="W28" t="n">
-        <v>1503.646164133598</v>
+        <v>4558.571799071968</v>
       </c>
       <c r="X28" t="n">
-        <v>1261.082267579403</v>
+        <v>4316.007902517773</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.739499269145</v>
+        <v>4089.665134207515</v>
       </c>
     </row>
     <row r="29">
@@ -6461,43 +6463,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
         <v>3777.607131232208</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>3313.89468267283</v>
       </c>
       <c r="J30" t="n">
-        <v>3578.14552899051</v>
+        <v>3313.89468267283</v>
       </c>
       <c r="K30" t="n">
-        <v>4168.630455558849</v>
+        <v>3313.89468267283</v>
       </c>
       <c r="L30" t="n">
-        <v>5005.429263641756</v>
+        <v>4150.693490755736</v>
       </c>
       <c r="M30" t="n">
-        <v>5115.135670291427</v>
+        <v>4150.693490755736</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>4150.693490755736</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>4150.693490755736</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>4650.990193428647</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>930.0221429225235</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>930.0221429225235</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1955.492679006434</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1673.781211614463</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.928807786976</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1156.364911232781</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>930.0221429225235</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,43 +6700,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
         <v>3777.607131232208</v>
@@ -6777,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>964.4851292537592</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3507.861222208865</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C34" t="n">
-        <v>3507.861222208865</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D34" t="n">
-        <v>3344.544449335636</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E34" t="n">
-        <v>3344.544449335636</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
         <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>4654.622661723635</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="V34" t="n">
-        <v>4441.786259612872</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="W34" t="n">
-        <v>4166.933855785384</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="X34" t="n">
-        <v>3924.369959231189</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y34" t="n">
-        <v>3698.027190920931</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="35">
@@ -6938,43 +6940,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614084</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100785</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>4362.434577686964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>5115.135670291427</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3158.801708427964</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3158.801708427964</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3158.801708427964</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3158.801708427964</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3158.801708427964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>2992.544738722196</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>2992.544738722196</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.967677140029</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7175,28 +7177,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M38" t="n">
         <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7254,13 +7256,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7366,16 +7368,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1542.018283751469</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1299.454387197274</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>603.6894663516439</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7409,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151242</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1082.193820490623</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7499,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N42" t="n">
         <v>1910.990343986338</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.167063056836</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C43" t="n">
-        <v>850.1944999357522</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U43" t="n">
-        <v>1720.387267471131</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V43" t="n">
-        <v>1438.67580007916</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W43" t="n">
-        <v>1438.67580007916</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X43" t="n">
-        <v>1438.67580007916</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.333031768902</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.2593601902432</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>333.2593601902432</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>333.2593601902432</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>333.2593601902432</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>333.2593601902432</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="K44" t="n">
-        <v>667.4947029893171</v>
+        <v>817.8110213813275</v>
       </c>
       <c r="L44" t="n">
-        <v>667.4947029893171</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>667.4947029893171</v>
+        <v>2720.098147267828</v>
       </c>
       <c r="N44" t="n">
-        <v>667.4947029893171</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O44" t="n">
-        <v>1218.160237973755</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P44" t="n">
-        <v>1768.825772958194</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>1966.556343058789</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1966.556343058789</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1570.164993359136</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1158.444994526883</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>753.1077244817733</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>602.6104029955975</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>1153.275937980036</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.520320645319</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1009.274747666399</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>837.302184545315</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>673.9854116720857</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>507.7772058249392</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>335.9154315994996</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>188.2944935410931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2224.911252462376</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>2224.911252462376</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>2224.911252462376</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1943.199785070404</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1668.347381242917</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1425.783484688723</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1199.440716378465</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>298.7878524343787</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>452.289812307084</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748073</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>461.8305092169925</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8216,19 +8218,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>205.7998844961774</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>550.5504466271776</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>458.8548577776432</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8456,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>548.1209608588841</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>108.094208435838</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8538,19 +8540,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q9" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,19 +8692,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>84.50867025038121</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L11" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8769,28 +8771,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>184.1630016116741</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>204.8788014195783</v>
       </c>
       <c r="P14" t="n">
-        <v>571.3293238908518</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9012,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>177.0689530252722</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>181.020801548772</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9166,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>571.1852249800523</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O17" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>593.8031749258255</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O18" t="n">
-        <v>261.3177895070124</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646222</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9404,19 +9406,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9486,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>180.0446044646222</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.95407573255488</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9650,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>611.6066190166146</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>236.8553498857486</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>260.8293917679123</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9735,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>883.920771480625</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>186.3697998820327</v>
       </c>
       <c r="M27" t="n">
         <v>1089.749849175</v>
@@ -9969,7 +9971,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>507.6330667855089</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>883.920771480625</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>133.9113326837132</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10206,10 +10208,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>527.1210459249409</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804204</v>
       </c>
       <c r="M32" t="n">
-        <v>765.1769988726438</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>171.1290763038224</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,13 +10588,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>765.1769988726438</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10607,7 +10609,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574439</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,13 +10825,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10902,16 +10904,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192185</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11066,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11075,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11147,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>298.7878524343791</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1019.918210644102</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298237</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>173.8486821944324</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291358</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22610,10 +22612,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>333.5711012311766</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.3362674455093</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22717,10 +22719,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>256.0841491131314</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>198.2172737989819</v>
+        <v>329.3362674455102</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22951,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59053326348456</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23072,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>286.7573121812404</v>
+        <v>333.5711012311766</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>329.3362674455097</v>
       </c>
       <c r="F11" t="n">
-        <v>179.1968148808552</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23318,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>165.7641609568367</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>101.2498895301397</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23552,13 +23554,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>232.1543510601566</v>
+        <v>348.9253100933453</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23710,10 +23712,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W16" t="n">
-        <v>117.2205539080145</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>79.19403497896914</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -23789,16 +23791,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>127.4113145533627</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>129.0261359073653</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>143.2959451071438</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>329.3362674455097</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>63.5299405605043</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>50.56495090172228</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>68.58716325894386</v>
+        <v>18.44967133088781</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>82.65423858759345</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>59.37454630891094</v>
       </c>
       <c r="V34" t="n">
-        <v>68.18631462839539</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>41.52700769166883</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.7419213204366</v>
+        <v>86.27030149724487</v>
       </c>
     </row>
     <row r="41">
@@ -25792,7 +25794,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U43" t="n">
-        <v>176.5852938824653</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>114.4221479968601</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>18.44967133088781</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26071,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474354.1362214188</v>
+        <v>474354.1362214186</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>786842.5643924263</v>
+        <v>474354.1362214187</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>786842.5643924262</v>
+        <v>786842.5643924263</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>786842.5643924263</v>
+        <v>786842.5643924262</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>786842.5643924263</v>
+        <v>786842.5643924262</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474354.1362214186</v>
+        <v>786842.5643924262</v>
       </c>
     </row>
   </sheetData>
@@ -26323,37 +26325,37 @@
         <v>118588.5340553546</v>
       </c>
       <c r="F2" t="n">
-        <v>118588.5340553546</v>
+        <v>118588.5340553547</v>
       </c>
       <c r="G2" t="n">
-        <v>118588.5340553546</v>
+        <v>118588.5340553547</v>
       </c>
       <c r="H2" t="n">
+        <v>118588.5340553547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>196710.6410981066</v>
+      </c>
+      <c r="J2" t="n">
+        <v>196710.6410981066</v>
+      </c>
+      <c r="K2" t="n">
+        <v>196710.6410981066</v>
+      </c>
+      <c r="L2" t="n">
         <v>196710.6410981067</v>
       </c>
-      <c r="I2" t="n">
-        <v>196710.6410981067</v>
-      </c>
-      <c r="J2" t="n">
-        <v>196710.6410981067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>196710.6410981067</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>196710.6410981066</v>
       </c>
-      <c r="M2" t="n">
-        <v>196710.6410981067</v>
-      </c>
       <c r="N2" t="n">
-        <v>196710.6410981067</v>
+        <v>196710.6410981066</v>
       </c>
       <c r="O2" t="n">
         <v>196710.6410981066</v>
       </c>
       <c r="P2" t="n">
-        <v>118588.5340553546</v>
+        <v>196710.6410981066</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>192142.8418533797</v>
       </c>
       <c r="J3" t="n">
         <v>145533.6699348165</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="C4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="D4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675964</v>
       </c>
       <c r="E4" t="n">
         <v>458.4532502675965</v>
       </c>
       <c r="F4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="G4" t="n">
-        <v>458.4532502675966</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="H4" t="n">
+        <v>458.4532502675965</v>
+      </c>
+      <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
-      <c r="I4" t="n">
-        <v>800.0602599433673</v>
-      </c>
       <c r="J4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="K4" t="n">
+        <v>800.0602599433669</v>
+      </c>
+      <c r="L4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="M4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="N4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="O4" t="n">
+        <v>800.060259943367</v>
+      </c>
+      <c r="P4" t="n">
         <v>800.0602599433671</v>
-      </c>
-      <c r="K4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="L4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="M4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="N4" t="n">
-        <v>800.0602599433672</v>
-      </c>
-      <c r="O4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="P4" t="n">
-        <v>458.4532502675966</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135720.9036470784</v>
+        <v>-135720.9036470783</v>
       </c>
       <c r="C6" t="n">
-        <v>50683.8297676589</v>
+        <v>50683.82976765893</v>
       </c>
       <c r="D6" t="n">
-        <v>50683.8297676589</v>
+        <v>50683.82976765891</v>
       </c>
       <c r="E6" t="n">
-        <v>84311.4297676589</v>
+        <v>84311.42976765893</v>
       </c>
       <c r="F6" t="n">
-        <v>84311.4297676589</v>
+        <v>84311.42976765895</v>
       </c>
       <c r="G6" t="n">
-        <v>84311.4297676589</v>
+        <v>84311.42976765895</v>
       </c>
       <c r="H6" t="n">
-        <v>-76791.62133777591</v>
+        <v>84311.42976765896</v>
       </c>
       <c r="I6" t="n">
+        <v>-73982.32320364614</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-27373.15128508286</v>
+      </c>
+      <c r="K6" t="n">
         <v>118160.5186497336</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-27373.15128508291</v>
-      </c>
-      <c r="K6" t="n">
-        <v>118160.5186497337</v>
       </c>
       <c r="L6" t="n">
         <v>118160.5186497336</v>
@@ -26555,13 +26557,13 @@
         <v>118160.5186497336</v>
       </c>
       <c r="N6" t="n">
-        <v>118160.5186497336</v>
+        <v>118160.5186497335</v>
       </c>
       <c r="O6" t="n">
         <v>118160.5186497336</v>
       </c>
       <c r="P6" t="n">
-        <v>84311.42976765889</v>
+        <v>118160.5186497336</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>556.227813115594</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>722.5561044572626</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>440.0596680121639</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34936,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>510.5455990486528</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>73.06155854104156</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>48.74406945557187</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>162.8199733981324</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635542</v>
       </c>
       <c r="P14" t="n">
-        <v>533.7539620806206</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>155.2981118204435</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>533.7539620806206</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O18" t="n">
-        <v>238.1458997847902</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.207037443576385</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>574.2156596605904</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.7306752811506</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>238.430157934579</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811933</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="M27" t="n">
         <v>1066.653068662672</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>846.4895085811933</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>110.8145521713853</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>505.3502047201122</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="M32" t="n">
-        <v>727.745735973212</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>149.7860480902807</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>727.745735973212</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37327,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439022</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>267.053332433632</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37786,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37795,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>263.0232516395698</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>982.4869477446701</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155941</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155941</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366389.3021028525</v>
+        <v>362909.331010768</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>14046880.39707515</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901946</v>
+        <v>4671565.284901947</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>162.9727240737143</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>74.03169761275359</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>114.7781968576826</v>
       </c>
       <c r="E5" t="n">
-        <v>92.38090300811082</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1059,10 +1059,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>35.51998788130934</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>315.5757672650941</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1147,7 +1147,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>74.03169761275359</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>92.38090300811126</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>136.1996955248587</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348486</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>70.55307498140078</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>58.67748875058492</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>55.75406509467693</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,16 +1852,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24.12958620662185</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G19" t="n">
-        <v>35.56826410134492</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>262.109398220601</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>78.26653139842047</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>8.209635605837729</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2575,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>123.9086344760393</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>44.68628532417755</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3195,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3243,19 +3243,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>218.0080577057878</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>178.6705526084108</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>160.6590810733391</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3717,7 +3717,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>40.84698832683137</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.8090391299105</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>172.7557593945127</v>
+        <v>4.370338608491547</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>3.60264190078549</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2150.131759924241</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C2" t="n">
-        <v>1723.231029937541</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D2" t="n">
-        <v>1299.938409122541</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924752</v>
@@ -4330,28 +4330,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>667.4947029893167</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>1218.160237973755</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M2" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="N2" t="n">
-        <v>1768.825772958193</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958193</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
@@ -4360,22 +4360,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2060.292339256604</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2060.292339256604</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1702.802924382853</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>1306.4115746832</v>
       </c>
       <c r="X2" t="n">
-        <v>2150.131759924241</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="Y2" t="n">
-        <v>2150.131759924241</v>
+        <v>894.6915758509472</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
+        <v>44.49822504924752</v>
+      </c>
+      <c r="L3" t="n">
+        <v>44.49822504924752</v>
+      </c>
+      <c r="M3" t="n">
         <v>595.1637600336854</v>
       </c>
-      <c r="L3" t="n">
-        <v>595.1637600336854</v>
-      </c>
-      <c r="M3" t="n">
-        <v>838.37484378254</v>
-      </c>
       <c r="N3" t="n">
-        <v>838.37484378254</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>838.37484378254</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743914</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934833</v>
+        <v>586.4127374849078</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067834</v>
+        <v>586.4127374849078</v>
       </c>
       <c r="D5" t="n">
-        <v>137.8122684917837</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E5" t="n">
         <v>44.49822504924752</v>
@@ -4570,25 +4570,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L5" t="n">
-        <v>957.767218850581</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596035</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580473</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462376</v>
@@ -4597,22 +4597,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462376</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630123</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585013</v>
+        <v>586.4127374849078</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M6" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N6" t="n">
-        <v>323.6423572907505</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>874.3078922751884</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>554.5895321015389</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924752</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1213.662165678057</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>971.0982691238626</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>744.7555008136046</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2150.131759924241</v>
+        <v>1322.50007669869</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.231029937541</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X8" t="n">
-        <v>2150.131759924241</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.131759924241</v>
+        <v>1641.263477976562</v>
       </c>
     </row>
     <row r="9">
@@ -4865,43 +4865,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924752</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336854</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>1145.829295018124</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.0056192934837</v>
+        <v>586.4127374849087</v>
       </c>
       <c r="C11" t="n">
-        <v>561.1048893067839</v>
+        <v>586.4127374849087</v>
       </c>
       <c r="D11" t="n">
-        <v>137.8122684917842</v>
+        <v>586.4127374849087</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924752</v>
+        <v>586.4127374849087</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>586.4127374849087</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>182.0736750743573</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>957.7672188505811</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>1508.432753835019</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M11" t="n">
-        <v>1556.689382596035</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N11" t="n">
-        <v>2107.354917580473</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462376</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.191253630123</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y11" t="n">
-        <v>1407.853983585014</v>
+        <v>586.4127374849087</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924752</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L12" t="n">
-        <v>595.1637600336855</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M12" t="n">
-        <v>595.1637600336855</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N12" t="n">
-        <v>756.3555336978367</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O12" t="n">
         <v>1307.021068682275</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.7432593109774</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>458.7432593109774</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>458.7432593109774</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>458.7432593109774</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5208,7 +5208,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N13" t="n">
         <v>1451.88378161995</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754302</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212353</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109774</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1745.792697513689</v>
+        <v>1173.606395972464</v>
       </c>
       <c r="C14" t="n">
-        <v>1318.891967526989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D14" t="n">
-        <v>895.5993467119897</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E14" t="n">
-        <v>469.6224068598473</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M14" t="n">
-        <v>1508.432753835019</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N14" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O14" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462376</v>
+        <v>1569.997745672117</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462376</v>
+        <v>1173.606395972464</v>
       </c>
       <c r="X14" t="n">
-        <v>2165.64106180522</v>
+        <v>1173.606395972464</v>
       </c>
       <c r="Y14" t="n">
-        <v>2165.64106180522</v>
+        <v>1173.606395972464</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924752</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924752</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336855</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N15" t="n">
-        <v>1145.829295018124</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O15" t="n">
-        <v>1145.829295018124</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P15" t="n">
-        <v>1696.494830002562</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524003</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>792.390011579171</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320245</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5445,7 +5445,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N16" t="n">
         <v>1451.88378161995</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1780.689568770218</v>
+        <v>1227.456825633441</v>
       </c>
       <c r="C17" t="n">
-        <v>1353.788838783518</v>
+        <v>800.5560956467413</v>
       </c>
       <c r="D17" t="n">
-        <v>930.4962179685185</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E17" t="n">
-        <v>504.5192781163761</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F17" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G17" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H17" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M17" t="n">
-        <v>595.1637600336855</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N17" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O17" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P17" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2200.537933061748</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2200.537933061748</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2200.537933061748</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V17" t="n">
-        <v>2200.537933061748</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W17" t="n">
-        <v>2200.537933061748</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X17" t="n">
-        <v>2200.537933061748</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="Y17" t="n">
-        <v>2200.537933061748</v>
+        <v>1283.774063102812</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336855</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N18" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O18" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
         <v>1853.185855629757</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>590.4683077392256</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C19" t="n">
-        <v>418.4957446181415</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D19" t="n">
-        <v>418.4957446181415</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E19" t="n">
-        <v>252.2875387709951</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F19" t="n">
-        <v>80.42576454555552</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5682,7 +5682,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
         <v>1451.88378161995</v>
@@ -5703,7 +5703,7 @@
         <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>1811.436857207411</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U19" t="n">
         <v>1531.252408707715</v>
@@ -5712,13 +5712,13 @@
         <v>1249.540941315744</v>
       </c>
       <c r="W19" t="n">
-        <v>1249.540941315744</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X19" t="n">
-        <v>1006.977044761549</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y19" t="n">
-        <v>780.6342764512912</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1320.668515703089</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C20" t="n">
-        <v>893.7677857163897</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D20" t="n">
-        <v>470.47516490139</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E20" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M20" t="n">
-        <v>595.1637600336855</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N20" t="n">
-        <v>595.1637600336855</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O20" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462376</v>
+        <v>1960.15428456278</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462376</v>
+        <v>1563.762934863126</v>
       </c>
       <c r="X20" t="n">
-        <v>2145.854150039729</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y20" t="n">
-        <v>1740.51687999462</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336855</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N21" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O21" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U22" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V22" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4659.050190787243</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787243</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,16 +6065,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2274.423179600939</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2274.423179600939</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1994.238731101243</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>855.0038060102931</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3899.499165495449</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>3727.526602374365</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>3564.209829501136</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>3398.00162365399</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>3226.13984942855</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3059.882879722782</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291426</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>5115.135670291426</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>5115.135670291426</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4833.424202899455</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>4558.571799071968</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>4316.007902517773</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>4089.665134207515</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6463,31 +6463,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982686</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
         <v>5010.768376164567</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3313.89468267283</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>3313.89468267283</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>3313.89468267283</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>4150.693490755736</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>4150.693490755736</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
-        <v>4150.693490755736</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>4150.693490755736</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>4650.990193428647</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2237.578078875343</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1994.238731101243</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1994.238731101243</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1983.783825177543</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402535</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281451</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4434.412502424859</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>4434.412502424859</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>4434.412502424859</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.412502424859</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="35">
@@ -6937,31 +6937,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076927</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -7013,22 +7013,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="38">
@@ -7174,34 +7174,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7250,16 +7250,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>1529.586448057074</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
         <v>1910.990343986338</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.6894663516439</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D40" t="n">
         <v>440.3726934784146</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y40" t="n">
-        <v>603.6894663516439</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="41">
@@ -7411,31 +7411,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>366.6855125151242</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1082.193820490623</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747413</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
         <v>5010.768376164567</v>
@@ -7487,19 +7487,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
         <v>1910.990343986338</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>612.3940204581199</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C43" t="n">
-        <v>440.4214573370359</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D43" t="n">
-        <v>440.4214573370359</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E43" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2108.214973753792</v>
+        <v>2108.166209895171</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.030525254097</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V43" t="n">
-        <v>1546.319057862125</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W43" t="n">
-        <v>1271.466654034638</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X43" t="n">
-        <v>1028.902757480444</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y43" t="n">
-        <v>802.5599891701856</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7645,40 +7645,40 @@
         <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>102.3027134058284</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813275</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267828</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.349205754529</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905341</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7724,19 +7724,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M45" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
         <v>1910.990343986338</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>446.1370507523521</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C46" t="n">
-        <v>274.1644876312681</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D46" t="n">
-        <v>274.1644876312681</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E46" t="n">
         <v>274.1644876312681</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>862.6457877746757</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y46" t="n">
-        <v>636.3030194644177</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>298.7878524343787</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480847</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>268.7645418748073</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204226</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L5" t="n">
         <v>594.5398555482168</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500345</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>458.8548577776432</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>548.1209608588841</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>181.445652982016</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8692,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>86.17533235500345</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500401</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N12" t="n">
-        <v>184.1630016116741</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378162</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8929,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O14" t="n">
-        <v>204.8788014195783</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>90.30334755109108</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M15" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291356</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.020801548772</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500401</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O17" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>548.1209608588846</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M18" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>180.0446044646222</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>548.1209608588846</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M21" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>180.0446044646222</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9643,7 +9643,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9652,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>611.6066190166146</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823039</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>883.920771480625</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>186.3697998820327</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>883.920771480625</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10208,10 +10208,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>527.1210459249409</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10354,25 +10354,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>849.7962292804204</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10606,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
@@ -10910,7 +10910,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>408.3532410469382</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>296.4732919192185</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,7 +11305,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1019.918210644102</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -22555,13 +22555,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22600,19 +22600,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>55.74359117209886</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>333.5711012311766</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>304.2814977491671</v>
       </c>
       <c r="E5" t="n">
-        <v>329.3362674455102</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22837,19 +22837,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22947,10 +22947,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,19 +22992,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>236.5838919079028</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>100.0741133835206</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23086,7 +23086,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>333.5711012311766</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>329.3362674455097</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>158.6899992158469</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23311,19 +23311,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568367</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>283.3614457436122</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>348.9253100933453</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>359.8958155539378</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>79.19403497896914</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -23898,13 +23898,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G19" t="n">
-        <v>129.0261359073653</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24028,13 +24028,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>91.80512250441205</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>329.3362674455097</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>63.5299405605043</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>160.2240614002188</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>18.44967133088781</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.7474116818789</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>59.37454630891094</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>45.40878801874456</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>9.593756416534063</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>236.5356156878674</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>86.27030149724487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,13 +25794,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25836,10 +25836,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.15019490184628</v>
+        <v>236.5356156878674</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>236.5356156878674</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474354.1362214186</v>
+        <v>474354.1362214187</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474354.1362214187</v>
+        <v>474354.1362214186</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>786842.5643924263</v>
+        <v>786842.5643924262</v>
       </c>
     </row>
     <row r="10">
@@ -26322,37 +26322,37 @@
         <v>118588.5340553546</v>
       </c>
       <c r="E2" t="n">
+        <v>118588.5340553547</v>
+      </c>
+      <c r="F2" t="n">
         <v>118588.5340553546</v>
       </c>
-      <c r="F2" t="n">
-        <v>118588.5340553547</v>
-      </c>
       <c r="G2" t="n">
-        <v>118588.5340553547</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="H2" t="n">
-        <v>118588.5340553547</v>
+        <v>118588.5340553546</v>
       </c>
       <c r="I2" t="n">
-        <v>196710.6410981066</v>
+        <v>196710.6410981067</v>
       </c>
       <c r="J2" t="n">
-        <v>196710.6410981066</v>
+        <v>196710.6410981067</v>
       </c>
       <c r="K2" t="n">
-        <v>196710.6410981066</v>
+        <v>196710.6410981067</v>
       </c>
       <c r="L2" t="n">
         <v>196710.6410981067</v>
       </c>
       <c r="M2" t="n">
-        <v>196710.6410981066</v>
+        <v>196710.6410981067</v>
       </c>
       <c r="N2" t="n">
-        <v>196710.6410981066</v>
+        <v>196710.6410981067</v>
       </c>
       <c r="O2" t="n">
-        <v>196710.6410981066</v>
+        <v>196710.6410981067</v>
       </c>
       <c r="P2" t="n">
         <v>196710.6410981066</v>
@@ -26423,40 +26423,40 @@
         <v>458.4532502675964</v>
       </c>
       <c r="D4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="E4" t="n">
         <v>458.4532502675965</v>
       </c>
       <c r="F4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="G4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="H4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433669</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="L4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="P4" t="n">
         <v>800.0602599433671</v>
@@ -26475,43 +26475,43 @@
         <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135720.9036470783</v>
+        <v>-136329.9493595679</v>
       </c>
       <c r="C6" t="n">
-        <v>50683.82976765893</v>
+        <v>50074.78405516924</v>
       </c>
       <c r="D6" t="n">
-        <v>50683.82976765891</v>
+        <v>50074.78405516924</v>
       </c>
       <c r="E6" t="n">
-        <v>84311.42976765893</v>
+        <v>83702.38405516927</v>
       </c>
       <c r="F6" t="n">
-        <v>84311.42976765895</v>
+        <v>83702.38405516921</v>
       </c>
       <c r="G6" t="n">
-        <v>84311.42976765895</v>
+        <v>83702.38405516924</v>
       </c>
       <c r="H6" t="n">
-        <v>84311.42976765896</v>
+        <v>83702.38405516921</v>
       </c>
       <c r="I6" t="n">
-        <v>-73982.32320364614</v>
+        <v>-74033.35386583039</v>
       </c>
       <c r="J6" t="n">
-        <v>-27373.15128508286</v>
+        <v>-27424.18194726711</v>
       </c>
       <c r="K6" t="n">
-        <v>118160.5186497336</v>
+        <v>118109.4879875493</v>
       </c>
       <c r="L6" t="n">
-        <v>118160.5186497336</v>
+        <v>118109.4879875493</v>
       </c>
       <c r="M6" t="n">
-        <v>118160.5186497336</v>
+        <v>118109.4879875493</v>
       </c>
       <c r="N6" t="n">
-        <v>118160.5186497335</v>
+        <v>118109.4879875493</v>
       </c>
       <c r="O6" t="n">
-        <v>118160.5186497336</v>
+        <v>118109.4879875493</v>
       </c>
       <c r="P6" t="n">
-        <v>118160.5186497336</v>
+        <v>118109.4879875493</v>
       </c>
     </row>
   </sheetData>
@@ -26795,19 +26795,19 @@
         <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>722.5561044572626</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="J4" t="n">
         <v>556.2278131155939</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>263.0232516395694</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>510.5455990486529</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>556.2278131155939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>245.6677613624794</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155939</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>437.0840165728146</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>510.5455990486528</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="L12" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N12" t="n">
-        <v>162.8199733981324</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O14" t="n">
-        <v>167.4878420635542</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M15" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P15" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M17" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N17" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M18" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N18" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M20" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O20" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M21" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N21" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36372,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>574.2156596605904</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107108</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>846.4895085811933</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>163.8547131678031</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>846.4895085811933</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>505.3502047201122</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>811.4841868477976</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37326,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
@@ -37630,7 +37630,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>385.2564605346102</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>267.053332433632</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,7 +38025,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>982.4869477446701</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
